--- a/WordPress_KT.xlsx
+++ b/WordPress_KT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,6 +642,13 @@
       </c>
       <c r="E11" s="9"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
